--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>valore atteso</t>
   </si>
@@ -348,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -382,7 +382,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,13 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,9 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,18 +538,21 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -873,28 +867,32 @@
   <dimension ref="A1:BJ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="10" width="31" style="27" customWidth="1"/>
-    <col min="11" max="15" width="31" style="28" customWidth="1"/>
-    <col min="16" max="16" width="37.77734375" style="28" customWidth="1"/>
-    <col min="17" max="27" width="31" style="28" customWidth="1"/>
-    <col min="28" max="34" width="12.109375" style="28" customWidth="1"/>
-    <col min="35" max="35" width="15.6640625" customWidth="1"/>
-    <col min="36" max="36" width="21.44140625" style="16" customWidth="1"/>
-    <col min="37" max="37" width="24.109375" customWidth="1"/>
-    <col min="62" max="62" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31" style="1" customWidth="1"/>
+    <col min="8" max="10" width="31" style="26" customWidth="1"/>
+    <col min="11" max="15" width="31" style="27" customWidth="1"/>
+    <col min="16" max="16" width="37.7109375" style="27" customWidth="1"/>
+    <col min="17" max="27" width="31" style="27" customWidth="1"/>
+    <col min="28" max="34" width="12.140625" style="27" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="16" customWidth="1"/>
+    <col min="37" max="37" width="24.140625" customWidth="1"/>
+    <col min="62" max="62" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:62" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,NUM_MASTER_SCALE_RATING</v>
@@ -1000,7 +998,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
-    <row r="2" spans="2:62" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:62" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1064,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="7"/>
       <c r="AB2" s="7"/>
-      <c r="AC2" s="19"/>
+      <c r="AC2" s="18"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -1082,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -1095,15 +1093,15 @@
       <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>1</v>
       </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -1232,7 +1230,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000076',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>60</v>
       </c>
@@ -1245,15 +1243,15 @@
       <c r="E4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>1</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -1382,7 +1380,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000077',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
@@ -1392,7 +1390,7 @@
       <c r="D5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>105</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1401,9 +1399,9 @@
       <c r="G5" s="2">
         <v>1</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -1532,7 +1530,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000078',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>62</v>
       </c>
@@ -1542,10 +1540,10 @@
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G6" s="2">
@@ -1682,7 +1680,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000079',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>63</v>
       </c>
@@ -1692,10 +1690,10 @@
       <c r="D7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G7" s="2">
@@ -1832,7 +1830,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000080',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>64</v>
       </c>
@@ -1842,7 +1840,7 @@
       <c r="D8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1982,7 +1980,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000081',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>65</v>
       </c>
@@ -1995,7 +1993,7 @@
       <c r="E9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2132,7 +2130,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000082',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>66</v>
       </c>
@@ -2145,7 +2143,7 @@
       <c r="E10" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2282,7 +2280,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000083',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>67</v>
       </c>
@@ -2432,17 +2430,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000084',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C12" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="2"/>
@@ -2588,17 +2586,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000085',NULL,1,1,1,1,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="6">
         <v>8</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="2"/>
@@ -2744,17 +2742,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000086',NULL,0,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="6">
         <v>8</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="2"/>
@@ -2900,17 +2898,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000087',NULL,?,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="6">
         <v>8</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="2"/>
@@ -3056,17 +3054,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000088',NULL,1,0,0,0,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C16" s="6">
         <v>8</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="2"/>
@@ -3212,17 +3210,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000089',NULL,0,0,0,0,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="6">
         <v>8</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="2"/>
@@ -3368,17 +3366,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000090',NULL,1,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C18" s="6">
         <v>8</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="2"/>
@@ -3524,17 +3522,17 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000091',NULL,?,?,0,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="6">
         <v>8</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="2"/>
@@ -3680,7 +3678,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000092',NULL,1,?,0,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>76</v>
       </c>
@@ -3695,8 +3693,8 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3828,7 +3826,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000093',NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>77</v>
       </c>
@@ -3843,9 +3841,9 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6">
@@ -3976,7 +3974,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000094',NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>78</v>
       </c>
@@ -3991,9 +3989,9 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6">
@@ -4124,7 +4122,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000095',NULL,NULL,NULL,NULL,NULL,NULL,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>79</v>
       </c>
@@ -4134,14 +4132,14 @@
       <c r="D23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="28" t="s">
         <v>95</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6">
@@ -4272,7 +4270,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000096',NULL,NULL,NULL,NULL,NULL,NULL,-50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>80</v>
       </c>
@@ -4287,9 +4285,9 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="8"/>
@@ -4420,7 +4418,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000097',NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>81</v>
       </c>
@@ -4435,9 +4433,9 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="8"/>
@@ -4568,7 +4566,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000098',NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>82</v>
       </c>
@@ -4583,9 +4581,9 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="8"/>
@@ -4716,7 +4714,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000099',NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>8</v>
       </c>
@@ -4731,9 +4729,9 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="8"/>
@@ -4864,7 +4862,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000100',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>9</v>
       </c>
@@ -4879,9 +4877,9 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="8"/>
@@ -5012,7 +5010,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000101',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="29" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29" s="14" t="s">
         <v>10</v>
@@ -5028,9 +5026,9 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="8"/>
@@ -5161,7 +5159,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000102',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>11</v>
       </c>
@@ -5171,14 +5169,14 @@
       <c r="D30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -5187,16 +5185,16 @@
       <c r="P30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q30" s="30" t="s">
+      <c r="Q30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R30" s="30" t="s">
+      <c r="R30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S30" s="30" t="s">
+      <c r="S30" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U30" s="8"/>
@@ -5213,8 +5211,12 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="4"/>
+      <c r="AI30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK30" s="3"/>
       <c r="AL30" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5317,7 +5319,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000103',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>12</v>
       </c>
@@ -5332,9 +5334,9 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -5343,16 +5345,16 @@
       <c r="P31" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="Q31" s="29">
         <v>0.3</v>
       </c>
-      <c r="R31" s="30" t="s">
+      <c r="R31" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S31" s="30" t="s">
+      <c r="S31" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T31" s="30" t="s">
+      <c r="T31" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U31" s="8"/>
@@ -5369,8 +5371,12 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="4"/>
+      <c r="AI31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK31" s="3"/>
       <c r="AL31" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5473,7 +5479,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000104',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,0,3,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>13</v>
       </c>
@@ -5488,9 +5494,9 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -5499,16 +5505,16 @@
       <c r="P32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="29">
         <v>0.3</v>
       </c>
-      <c r="R32" s="30">
+      <c r="R32" s="29">
         <v>0.2</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="29">
         <v>0.1</v>
       </c>
-      <c r="T32" s="30">
+      <c r="T32" s="29">
         <v>0.2</v>
       </c>
       <c r="U32" s="8"/>
@@ -5525,8 +5531,12 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="4"/>
+      <c r="AI32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK32" s="3"/>
       <c r="AL32" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5629,14 +5639,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000105',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,0,3,0,2,0,1,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="2">
         <v>36</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>1E-3</v>
       </c>
       <c r="E33" s="15" t="s">
@@ -5644,27 +5654,27 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q33" s="30" t="s">
+      <c r="Q33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R33" s="30" t="s">
+      <c r="R33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="30" t="s">
+      <c r="S33" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T33" s="30" t="s">
+      <c r="T33" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U33" s="6"/>
@@ -5681,8 +5691,12 @@
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="4"/>
+      <c r="AI33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK33" s="3"/>
       <c r="AL33" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5785,14 +5799,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000106',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="2">
         <v>36</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>1E-3</v>
       </c>
       <c r="E34" s="15" t="s">
@@ -5800,27 +5814,27 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q34" s="30" t="s">
+      <c r="Q34" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="R34" s="30" t="s">
+      <c r="R34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S34" s="30" t="s">
+      <c r="S34" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T34" s="30" t="s">
+      <c r="T34" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U34" s="6"/>
@@ -5837,8 +5851,12 @@
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="4"/>
+      <c r="AI34" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ34" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK34" s="3"/>
       <c r="AL34" s="11" t="str">
         <f t="shared" si="3"/>
@@ -5941,14 +5959,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000107',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0.300,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="2">
         <v>36</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <v>0.30099999999999999</v>
       </c>
       <c r="E35" s="15" t="s">
@@ -5956,27 +5974,27 @@
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="32" t="s">
+      <c r="P35" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q35" s="33" t="s">
+      <c r="Q35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="R35" s="33">
+      <c r="R35" s="29">
         <v>-0.3</v>
       </c>
-      <c r="S35" s="33" t="s">
+      <c r="S35" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T35" s="33" t="s">
+      <c r="T35" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U35" s="6"/>
@@ -5993,8 +6011,12 @@
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="4"/>
+      <c r="AI35" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK35" s="3"/>
       <c r="AL35" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6097,14 +6119,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000108',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,?,-0,3,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="2">
         <v>36</v>
       </c>
-      <c r="D36" s="31">
+      <c r="D36" s="30">
         <f>MAX(Q36/R36,S36/T36)</f>
         <v>1.4999999999999998</v>
       </c>
@@ -6113,27 +6135,27 @@
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="Q36" s="29">
         <v>0.3</v>
       </c>
-      <c r="R36" s="30">
+      <c r="R36" s="29">
         <v>0.2</v>
       </c>
-      <c r="S36" s="30">
+      <c r="S36" s="29">
         <v>0.1</v>
       </c>
-      <c r="T36" s="30">
+      <c r="T36" s="29">
         <v>0.2</v>
       </c>
       <c r="U36" s="6"/>
@@ -6150,8 +6172,12 @@
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="4"/>
+      <c r="AI36" s="2">
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK36" s="3"/>
       <c r="AL36" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6254,14 +6280,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000109',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,1,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="2">
         <v>36</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="30">
         <v>0.30099999999999999</v>
       </c>
       <c r="E37" s="15" t="s">
@@ -6269,27 +6295,27 @@
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
-      <c r="P37" s="32" t="s">
+      <c r="P37" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="29">
         <v>0.3</v>
       </c>
-      <c r="R37" s="33">
+      <c r="R37" s="29">
         <v>0.2</v>
       </c>
-      <c r="S37" s="33">
+      <c r="S37" s="29">
         <v>-0.1</v>
       </c>
-      <c r="T37" s="33">
+      <c r="T37" s="29">
         <v>-0.2</v>
       </c>
       <c r="U37" s="6"/>
@@ -6306,8 +6332,12 @@
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="4"/>
+      <c r="AI37" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK37" s="3"/>
       <c r="AL37" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6410,14 +6440,14 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000110',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,-0,1,-0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="2">
         <v>36</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="31">
         <v>1E-3</v>
       </c>
       <c r="E38" s="15" t="s">
@@ -6425,27 +6455,27 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
-      <c r="P38" s="32" t="s">
+      <c r="P38" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="29">
         <v>0.3</v>
       </c>
-      <c r="R38" s="33">
+      <c r="R38" s="29">
         <v>0.2</v>
       </c>
-      <c r="S38" s="33" t="s">
+      <c r="S38" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T38" s="33" t="s">
+      <c r="T38" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U38" s="6"/>
@@ -6462,8 +6492,12 @@
       <c r="AF38" s="6"/>
       <c r="AG38" s="6"/>
       <c r="AH38" s="6"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="4"/>
+      <c r="AI38" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK38" s="3"/>
       <c r="AL38" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6566,42 +6600,42 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000111',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="2">
         <v>36</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="32">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
-      <c r="P39" s="22" t="s">
+      <c r="P39" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q39" s="30">
+      <c r="Q39" s="29">
         <v>0</v>
       </c>
-      <c r="R39" s="30" t="s">
+      <c r="R39" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="S39" s="30" t="s">
+      <c r="S39" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="T39" s="30" t="s">
+      <c r="T39" s="29" t="s">
         <v>93</v>
       </c>
       <c r="U39" s="6"/>
@@ -6618,8 +6652,12 @@
       <c r="AF39" s="6"/>
       <c r="AG39" s="6"/>
       <c r="AH39" s="6"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="4"/>
+      <c r="AI39" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK39" s="3"/>
       <c r="AL39" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6722,42 +6760,42 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000112',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="2">
         <v>36</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="32">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="33" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="22" t="s">
+      <c r="P40" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="Q40" s="30">
+      <c r="Q40" s="29">
         <v>0.3</v>
       </c>
-      <c r="R40" s="30">
+      <c r="R40" s="29">
         <v>0.2</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="29">
         <v>0</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="29">
         <v>0.2</v>
       </c>
       <c r="U40" s="6"/>
@@ -6774,8 +6812,12 @@
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="4"/>
+      <c r="AI40" s="34">
+        <v>1E-3</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="AK40" s="3"/>
       <c r="AL40" s="11" t="str">
         <f t="shared" si="3"/>
@@ -6878,18 +6920,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000113',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="15"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -7018,18 +7060,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000114',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="42" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="15"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -7158,18 +7200,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000115',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -7298,18 +7340,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000116',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B44" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -7438,18 +7480,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000117',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -7578,18 +7620,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000118',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -7718,18 +7760,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000119',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -7858,18 +7900,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000120',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -7998,18 +8040,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000121',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="49" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -8138,18 +8180,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000122',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="50" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -8278,18 +8320,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000123',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="51" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -8418,18 +8460,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000124',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="52" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -8558,18 +8600,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000125',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="53" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -8698,18 +8740,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000126',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="54" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -8838,18 +8880,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000127',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="55" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -8978,18 +9020,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000128',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="56" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -9118,18 +9160,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000129',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="57" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -9258,18 +9300,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000130',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="58" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -9398,18 +9440,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000131',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="59" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -9538,18 +9580,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000132',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="60" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B60" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="15"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -9678,18 +9720,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000133',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="61" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="15"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -9818,18 +9860,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000134',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="62" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B62" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="15"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -9958,18 +10000,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000135',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="63" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="15"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -10098,18 +10140,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000136',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="64" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="15"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -10238,18 +10280,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000137',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="65" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="15"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -10378,18 +10420,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000138',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="66" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="15"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -10407,8 +10449,8 @@
       <c r="Y66" s="6"/>
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="21"/>
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="20"/>
       <c r="AD66" s="6"/>
       <c r="AE66" s="6"/>
       <c r="AF66" s="6"/>
@@ -10421,18 +10463,18 @@
       <c r="BI66" s="12"/>
       <c r="BJ66" s="13"/>
     </row>
-    <row r="67" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="17"/>
-      <c r="D67" s="15"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -10449,16 +10491,16 @@
       <c r="X67" s="6"/>
       <c r="Y67" s="6"/>
       <c r="Z67" s="6"/>
-      <c r="AA67" s="22"/>
-      <c r="AB67" s="20"/>
-      <c r="AC67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="19"/>
+      <c r="AC67" s="20"/>
       <c r="AD67" s="6"/>
       <c r="AE67" s="6"/>
       <c r="AF67" s="6"/>
       <c r="AG67" s="6"/>
       <c r="AH67" s="6"/>
       <c r="AI67" s="3"/>
-      <c r="AJ67" s="23"/>
+      <c r="AJ67" s="22"/>
       <c r="AK67" s="3"/>
       <c r="AL67" s="11" t="str">
         <f t="shared" si="3"/>
@@ -10561,18 +10603,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000140',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="68" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="15"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -10589,9 +10631,9 @@
       <c r="X68" s="6"/>
       <c r="Y68" s="6"/>
       <c r="Z68" s="6"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="26"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="25"/>
       <c r="AD68" s="6"/>
       <c r="AE68" s="6"/>
       <c r="AF68" s="6"/>
@@ -10701,18 +10743,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000141',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="69" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="17"/>
-      <c r="D69" s="15"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -10729,9 +10771,9 @@
       <c r="X69" s="6"/>
       <c r="Y69" s="6"/>
       <c r="Z69" s="6"/>
-      <c r="AA69" s="22"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="26"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
       <c r="AD69" s="6"/>
       <c r="AE69" s="6"/>
       <c r="AF69" s="6"/>
@@ -10744,18 +10786,18 @@
       <c r="BI69" s="12"/>
       <c r="BJ69" s="13"/>
     </row>
-    <row r="70" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="17"/>
-      <c r="D70" s="15"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -10884,18 +10926,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000143',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="71" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="15"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -11024,18 +11066,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000144',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="72" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -11164,18 +11206,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000145',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="73" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="15"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -11304,18 +11346,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000146',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="74" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="15"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -11444,18 +11486,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000147',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="75" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="15"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -11584,18 +11626,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000148',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="76" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="15"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -11724,18 +11766,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000149',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="77" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B77" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="15"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -11864,18 +11906,18 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000150',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="78" spans="2:62" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:62" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="15"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="High_Priority" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -277,7 +277,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FFF682F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,15 +384,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF682F0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -704,32 +715,32 @@
   <dimension ref="A1:BJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ9" sqref="AJ9"/>
+      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.109375" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="31" style="1" customWidth="1"/>
     <col min="8" max="10" width="31" style="22" customWidth="1"/>
     <col min="11" max="15" width="31" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.7109375" style="23" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="23" customWidth="1"/>
     <col min="17" max="27" width="31" style="23" customWidth="1"/>
-    <col min="28" max="34" width="12.140625" style="23" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" customWidth="1"/>
-    <col min="36" max="36" width="21.42578125" style="16" customWidth="1"/>
-    <col min="37" max="37" width="24.140625" customWidth="1"/>
-    <col min="62" max="62" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="34" width="12.109375" style="23" customWidth="1"/>
+    <col min="35" max="35" width="15.6640625" customWidth="1"/>
+    <col min="36" max="36" width="21.44140625" style="16" customWidth="1"/>
+    <col min="37" max="37" width="24.109375" customWidth="1"/>
+    <col min="62" max="62" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:62" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="str">
         <f>B2&amp;","&amp;F2</f>
         <v>COD_SNDG,NUM_MASTER_SCALE_RATING</v>
@@ -835,7 +846,7 @@
       <c r="AG1"/>
       <c r="AH1"/>
     </row>
-    <row r="2" spans="2:62" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:62" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -917,7 +928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1080,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000076',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="4" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000077',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="5" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
         <v>23</v>
       </c>
@@ -1373,7 +1384,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000078',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="6" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1536,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000079',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="7" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
@@ -1677,7 +1688,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000080',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="8" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
@@ -1829,7 +1840,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000081',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="9" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
         <v>27</v>
       </c>
@@ -1981,7 +1992,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000082',20,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="10" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -2133,7 +2144,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000083',05,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="11" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
         <v>29</v>
       </c>
@@ -2285,7 +2296,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000084',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="12" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>30</v>
       </c>
@@ -2435,7 +2446,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000093',NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="13" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>31</v>
       </c>
@@ -2585,7 +2596,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000094',NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="14" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000095',NULL,NULL,NULL,NULL,NULL,NULL,50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="15" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2896,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000096',NULL,NULL,NULL,NULL,NULL,NULL,-50,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="16" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:62" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
@@ -3037,7 +3048,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000097',NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>35</v>
       </c>
@@ -3189,7 +3200,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000098',NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>36</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000099',NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>8</v>
       </c>
@@ -3493,7 +3504,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000100',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,1,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
@@ -3645,7 +3656,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000101',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="21" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21" s="14" t="s">
         <v>10</v>
@@ -3798,7 +3809,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000102',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000103',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>12</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000104',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,0,3,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
@@ -4278,7 +4289,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000105',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,?,0,3,0,2,0,1,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>14</v>
       </c>
@@ -4438,7 +4449,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000106',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,?,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>15</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000107',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0.300,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
@@ -4758,7 +4769,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000108',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,?,-0,3,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>17</v>
       </c>
@@ -4919,7 +4930,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000109',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,1,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>18</v>
       </c>
@@ -5079,7 +5090,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000110',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,-0,1,-0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>19</v>
       </c>
@@ -5092,11 +5103,11 @@
       <c r="E30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -5239,24 +5250,24 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000111',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="2">
         <v>36</v>
       </c>
-      <c r="D31" s="28">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -5291,7 +5302,7 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
-      <c r="AI31" s="30">
+      <c r="AI31" s="2">
         <v>1E-3</v>
       </c>
       <c r="AJ31" s="2" t="s">
@@ -5399,7 +5410,7 @@
         <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000112',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,?,?,?,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>21</v>
       </c>
@@ -5422,19 +5433,19 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="19" t="s">
+      <c r="P32" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="25">
+      <c r="Q32" s="31">
         <v>0.3</v>
       </c>
-      <c r="R32" s="25">
+      <c r="R32" s="31">
         <v>0.2</v>
       </c>
-      <c r="S32" s="25">
+      <c r="S32" s="31">
         <v>0</v>
       </c>
-      <c r="T32" s="25">
+      <c r="T32" s="31">
         <v>0.2</v>
       </c>
       <c r="U32" s="6"/>
@@ -5451,10 +5462,10 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AI32" s="30">
+      <c r="AI32" s="32">
         <v>1E-3</v>
       </c>
-      <c r="AJ32" s="2" t="s">
+      <c r="AJ32" s="29" t="s">
         <v>1</v>
       </c>
       <c r="AK32" s="3"/>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
@@ -244,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,12 +272,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF682F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,20 +372,8 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,10 +697,10 @@
   <dimension ref="A1:BJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF35" sqref="AF35"/>
+      <selection pane="bottomRight" activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5417,14 +5399,14 @@
       <c r="C32" s="2">
         <v>36</v>
       </c>
-      <c r="D32" s="28">
+      <c r="D32" s="27">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="E32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
@@ -5433,20 +5415,20 @@
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="30" t="s">
+      <c r="P32" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="Q32" s="31">
+      <c r="Q32" s="25">
         <v>0.3</v>
       </c>
-      <c r="R32" s="31">
+      <c r="R32" s="25">
         <v>0.2</v>
       </c>
-      <c r="S32" s="31">
+      <c r="S32" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="T32" s="25">
         <v>0</v>
-      </c>
-      <c r="T32" s="31">
-        <v>0.2</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
@@ -5462,10 +5444,10 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
-      <c r="AI32" s="32">
-        <v>1E-3</v>
-      </c>
-      <c r="AJ32" s="29" t="s">
+      <c r="AI32" s="28">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="AJ32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AK32" s="3"/>
@@ -5519,55 +5501,55 @@
       </c>
       <c r="AX32" t="str">
         <f t="shared" si="15"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2</v>
       </c>
       <c r="AY32" t="str">
         <f t="shared" si="16"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0</v>
       </c>
       <c r="AZ32" t="str">
         <f t="shared" si="17"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL</v>
       </c>
       <c r="BA32" t="str">
         <f t="shared" si="18"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL</v>
       </c>
       <c r="BB32" t="str">
         <f t="shared" si="19"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL</v>
       </c>
       <c r="BC32" t="str">
         <f t="shared" si="20"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BD32" t="str">
         <f t="shared" si="21"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BE32" t="str">
         <f t="shared" si="22"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BF32" t="str">
         <f t="shared" si="23"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BG32" t="str">
         <f t="shared" si="24"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BH32" t="str">
         <f t="shared" si="28"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BI32" s="12" t="str">
         <f t="shared" si="27"/>
-        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
+        <v>NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL</v>
       </c>
       <c r="BJ32" s="13" t="str">
         <f t="shared" si="26"/>
-        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000113',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,0,2,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
+        <v xml:space="preserve">INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000113',NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,0000000000000001,0,3,0,2,0,2,0,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL,NULL); </v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
+++ b/earlywarning-pom/Document/test/SME RETAIL/test_Ind_High_Priority_SMERetail_round2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>valore atteso</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>0000000000000001</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -303,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,6 +376,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +703,10 @@
   <dimension ref="A1:BJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AJ15" sqref="AJ15"/>
+      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -711,11 +717,11 @@
     <col min="4" max="4" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="10" width="31" style="22" customWidth="1"/>
-    <col min="11" max="15" width="31" style="23" customWidth="1"/>
-    <col min="16" max="16" width="37.6640625" style="23" customWidth="1"/>
-    <col min="17" max="27" width="31" style="23" customWidth="1"/>
-    <col min="28" max="34" width="12.109375" style="23" customWidth="1"/>
+    <col min="8" max="10" width="31" style="22" hidden="1" customWidth="1"/>
+    <col min="11" max="15" width="31" style="23" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.6640625" style="23" hidden="1" customWidth="1"/>
+    <col min="17" max="27" width="31" style="23" hidden="1" customWidth="1"/>
+    <col min="28" max="34" width="12.109375" style="23" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="15.6640625" customWidth="1"/>
     <col min="36" max="36" width="21.44140625" style="16" customWidth="1"/>
     <col min="37" max="37" width="24.109375" customWidth="1"/>
@@ -920,9 +926,7 @@
       <c r="D3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="20" t="s">
         <v>40</v>
       </c>
@@ -960,7 +964,9 @@
         <v>40</v>
       </c>
       <c r="AJ3" s="4"/>
-      <c r="AK3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL3" s="11" t="str">
         <f>"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AF$1&amp;") VALUES ( " &amp;B3&amp;","&amp;(IF(OR(LEN(F3)=0,F3="missing"),"NULL",F3))</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000076',20</v>
@@ -1072,9 +1078,7 @@
       <c r="D4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="20" t="s">
         <v>39</v>
       </c>
@@ -1112,7 +1116,9 @@
         <v>39</v>
       </c>
       <c r="AJ4" s="4"/>
-      <c r="AK4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL4" s="11" t="str">
         <f t="shared" ref="AL4:AL32" si="3">"INSERT INTO TEWSA0W.CT_SME_TMP ("&amp;AF$1&amp;") VALUES ( " &amp;B4&amp;","&amp;(IF(OR(LEN(F4)=0,F4="missing"),"NULL",F4))</f>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000077',05</v>
@@ -1263,8 +1269,12 @@
       <c r="AI5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="3"/>
+      <c r="AJ5" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL5" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000078',NULL</v>
@@ -1415,8 +1425,12 @@
       <c r="AI6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="3"/>
+      <c r="AJ6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL6" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000079',20</v>
@@ -1567,8 +1581,12 @@
       <c r="AI7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="3"/>
+      <c r="AJ7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL7" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000080',05</v>
@@ -1719,8 +1737,12 @@
       <c r="AI8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="3"/>
+      <c r="AJ8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL8" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000081',NULL</v>
@@ -1832,7 +1854,7 @@
       <c r="D9" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="20" t="s">
@@ -1871,8 +1893,12 @@
       <c r="AI9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="3"/>
+      <c r="AJ9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL9" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000082',20</v>
@@ -1984,7 +2010,7 @@
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="20" t="s">
@@ -2023,8 +2049,12 @@
       <c r="AI10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="3"/>
+      <c r="AJ10" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL10" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000083',05</v>
@@ -2136,7 +2166,7 @@
       <c r="D11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="24" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -2175,8 +2205,12 @@
       <c r="AI11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="3"/>
+      <c r="AJ11" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL11" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000084',NULL</v>
@@ -2288,9 +2322,7 @@
       <c r="D12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E12" s="15"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="21"/>
@@ -2326,7 +2358,9 @@
         <v>1</v>
       </c>
       <c r="AJ12" s="4"/>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL12" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000093',NULL</v>
@@ -2438,9 +2472,7 @@
       <c r="D13" s="15">
         <v>0</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="21"/>
@@ -2476,7 +2508,9 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="4"/>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL13" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000094',NULL</v>
@@ -2588,9 +2622,7 @@
       <c r="D14" s="15">
         <v>50</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="21"/>
@@ -2626,7 +2658,9 @@
         <v>50</v>
       </c>
       <c r="AJ14" s="4"/>
-      <c r="AK14" s="3"/>
+      <c r="AK14" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL14" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000095',NULL</v>
@@ -2775,8 +2809,12 @@
       <c r="AI15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="3"/>
+      <c r="AJ15" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL15" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000096',NULL</v>
@@ -2888,9 +2926,7 @@
       <c r="D16" s="15">
         <v>1</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="21"/>
@@ -2925,10 +2961,10 @@
       <c r="AI16" s="4">
         <v>1</v>
       </c>
-      <c r="AJ16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="3"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL16" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000097',NULL</v>
@@ -3040,9 +3076,7 @@
       <c r="D17" s="15">
         <v>0</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E17" s="15"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="21"/>
@@ -3077,10 +3111,10 @@
       <c r="AI17" s="4">
         <v>0</v>
       </c>
-      <c r="AJ17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="3"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000098',NULL</v>
@@ -3192,9 +3226,7 @@
       <c r="D18" s="15">
         <v>0</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E18" s="15"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="21"/>
@@ -3229,10 +3261,10 @@
       <c r="AI18" s="4">
         <v>0</v>
       </c>
-      <c r="AJ18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK18" s="3"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL18" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000099',NULL</v>
@@ -3344,9 +3376,7 @@
       <c r="D19" s="15">
         <v>1</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="21"/>
@@ -3381,10 +3411,10 @@
       <c r="AI19" s="4">
         <v>1</v>
       </c>
-      <c r="AJ19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="3"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL19" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000100',NULL</v>
@@ -3496,9 +3526,7 @@
       <c r="D20" s="15">
         <v>0</v>
       </c>
-      <c r="E20" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E20" s="15"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="21"/>
@@ -3533,10 +3561,10 @@
       <c r="AI20" s="4">
         <v>0</v>
       </c>
-      <c r="AJ20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="3"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL20" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000101',NULL</v>
@@ -3649,9 +3677,7 @@
       <c r="D21" s="15">
         <v>0</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="21"/>
@@ -3686,10 +3712,10 @@
       <c r="AI21" s="4">
         <v>0</v>
       </c>
-      <c r="AJ21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="3"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL21" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000102',NULL</v>
@@ -3801,9 +3827,7 @@
       <c r="D22" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="21"/>
@@ -3846,10 +3870,10 @@
       <c r="AI22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AJ22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK22" s="3"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL22" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000103',NULL</v>
@@ -3961,9 +3985,7 @@
       <c r="D23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E23" s="15"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="21"/>
@@ -4006,10 +4028,10 @@
       <c r="AI23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AJ23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK23" s="3"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL23" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000104',NULL</v>
@@ -4121,9 +4143,7 @@
       <c r="D24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E24" s="15"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="21"/>
@@ -4166,10 +4186,10 @@
       <c r="AI24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AJ24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="3"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL24" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000105',NULL</v>
@@ -4281,9 +4301,7 @@
       <c r="D25" s="26">
         <v>1E-3</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="21"/>
@@ -4326,10 +4344,10 @@
       <c r="AI25" s="2">
         <v>1E-3</v>
       </c>
-      <c r="AJ25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL25" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000106',NULL</v>
@@ -4441,9 +4459,7 @@
       <c r="D26" s="26">
         <v>1E-3</v>
       </c>
-      <c r="E26" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E26" s="15"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="21"/>
@@ -4486,10 +4502,10 @@
       <c r="AI26" s="2">
         <v>1E-3</v>
       </c>
-      <c r="AJ26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="3"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL26" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000107',NULL</v>
@@ -4601,9 +4617,7 @@
       <c r="D27" s="26">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="21"/>
@@ -4646,10 +4660,10 @@
       <c r="AI27" s="2">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AJ27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="3"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL27" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000108',NULL</v>
@@ -4762,9 +4776,7 @@
         <f>MAX(Q28/R28,S28/T28)</f>
         <v>1.4999999999999998</v>
       </c>
-      <c r="E28" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="21"/>
@@ -4807,10 +4819,10 @@
       <c r="AI28" s="2">
         <v>1.4999999999999998</v>
       </c>
-      <c r="AJ28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="3"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL28" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000109',NULL</v>
@@ -4922,9 +4934,7 @@
       <c r="D29" s="26">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="21"/>
@@ -4967,10 +4977,10 @@
       <c r="AI29" s="2">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AJ29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="3"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL29" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000110',NULL</v>
@@ -5082,9 +5092,7 @@
       <c r="D30" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
@@ -5127,10 +5135,10 @@
       <c r="AI30" s="2">
         <v>1E-3</v>
       </c>
-      <c r="AJ30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="3"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL30" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000111',NULL</v>
@@ -5242,9 +5250,7 @@
       <c r="D31" s="27">
         <v>1E-3</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E31" s="15"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
@@ -5287,10 +5293,10 @@
       <c r="AI31" s="2">
         <v>1E-3</v>
       </c>
-      <c r="AJ31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="3"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL31" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000112',NULL</v>
@@ -5402,9 +5408,7 @@
       <c r="D32" s="27">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>1</v>
-      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="21"/>
@@ -5447,10 +5451,10 @@
       <c r="AI32" s="28">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AJ32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="3"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="AL32" s="11" t="str">
         <f t="shared" si="3"/>
         <v>INSERT INTO TEWSA0W.CT_SME_TMP (COD_SNDG,NUM_MASTER_SCALE_RATING,FLG_BANKRUP_APPL_GRP_NO1,FLG_BANKRUP_APPL_GRP_NO2,FLG_BANKRUP_APPL_GRP_NO3,FLG_BANKRUP_APPL_GRP_NO4,FLG_BANKRUP_APPL_GRP_NO5,NUM_OVERDRAFT_DD,FLG_JD_INADE_QDEBT,FLG_JD_BOND_TRADE_SUSP,COD_SNDG_CAPO_GRP_FALLITA_LIV1,BIL_AZ_GRP_FALLITA_LIV1,BIL_CO_GRP_FALLITA_LIV1,MOL_AZ_GRP_FALLITA_LIV1     ,MOL_CO_GRP_FALLITA_LIV1,,,,,,,,,,) VALUES ( '0000000000000113',NULL</v>
